--- a/Code/Results/Cases/Case_0_228/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_228/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9389342324745249</v>
+        <v>1.010622732913008</v>
       </c>
       <c r="D2">
-        <v>0.948015519599996</v>
+        <v>1.013268254309555</v>
       </c>
       <c r="E2">
-        <v>0.9531202694994384</v>
+        <v>1.012829630966766</v>
       </c>
       <c r="F2">
-        <v>0.9122309421231131</v>
+        <v>1.008866401775824</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045224098310553</v>
+        <v>1.023594999628091</v>
       </c>
       <c r="J2">
-        <v>0.9631085372907691</v>
+        <v>1.015875912179003</v>
       </c>
       <c r="K2">
-        <v>0.9602499497323467</v>
+        <v>1.016129916656902</v>
       </c>
       <c r="L2">
-        <v>0.9652737974708843</v>
+        <v>1.015692611750708</v>
       </c>
       <c r="M2">
-        <v>0.9250654521581718</v>
+        <v>1.011741352102767</v>
       </c>
       <c r="N2">
-        <v>0.9644762618838152</v>
+        <v>1.017318572496894</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9476929422031911</v>
+        <v>1.012267720130226</v>
       </c>
       <c r="D3">
-        <v>0.9559928693674878</v>
+        <v>1.014824216018873</v>
       </c>
       <c r="E3">
-        <v>0.9604064114283895</v>
+        <v>1.014248996179511</v>
       </c>
       <c r="F3">
-        <v>0.9242803732894946</v>
+        <v>1.011170520799082</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045318143171977</v>
+        <v>1.023504579208683</v>
       </c>
       <c r="J3">
-        <v>0.9697187557839655</v>
+        <v>1.017150088860457</v>
       </c>
       <c r="K3">
-        <v>0.9672216169707145</v>
+        <v>1.017488479125081</v>
       </c>
       <c r="L3">
-        <v>0.9715722847747311</v>
+        <v>1.016914860441043</v>
       </c>
       <c r="M3">
-        <v>0.9359834553518017</v>
+        <v>1.013844987741668</v>
       </c>
       <c r="N3">
-        <v>0.9710958676454745</v>
+        <v>1.018594558655385</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9531447050055095</v>
+        <v>1.013329534166126</v>
       </c>
       <c r="D4">
-        <v>0.9609651720196799</v>
+        <v>1.015828826175059</v>
       </c>
       <c r="E4">
-        <v>0.9649496411425132</v>
+        <v>1.015165307789247</v>
       </c>
       <c r="F4">
-        <v>0.9317543894858972</v>
+        <v>1.012658018727508</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045357368412754</v>
+        <v>1.023443335729026</v>
       </c>
       <c r="J4">
-        <v>0.9738279700764709</v>
+        <v>1.017971744485485</v>
       </c>
       <c r="K4">
-        <v>0.9715587194354656</v>
+        <v>1.018364895301191</v>
       </c>
       <c r="L4">
-        <v>0.9754903476159557</v>
+        <v>1.017703128852677</v>
       </c>
       <c r="M4">
-        <v>0.9427527959560471</v>
+        <v>1.015202482377502</v>
       </c>
       <c r="N4">
-        <v>0.975210917493609</v>
+        <v>1.019417381125646</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9553888646998882</v>
+        <v>1.013775313124033</v>
       </c>
       <c r="D5">
-        <v>0.9630135183467076</v>
+        <v>1.016250651085927</v>
       </c>
       <c r="E5">
-        <v>0.9668215828915868</v>
+        <v>1.015550031501989</v>
       </c>
       <c r="F5">
-        <v>0.9348257451469637</v>
+        <v>1.013282571957314</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045368675785518</v>
+        <v>1.023416932628374</v>
       </c>
       <c r="J5">
-        <v>0.975518185039127</v>
+        <v>1.018316505173813</v>
       </c>
       <c r="K5">
-        <v>0.9733434236975376</v>
+        <v>1.018732715462583</v>
       </c>
       <c r="L5">
-        <v>0.977102517781098</v>
+        <v>1.018033903713064</v>
       </c>
       <c r="M5">
-        <v>0.9455337817677347</v>
+        <v>1.015772313472753</v>
       </c>
       <c r="N5">
-        <v>0.9769035327553822</v>
+        <v>1.019762631413695</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9557629724339834</v>
+        <v>1.013850126184366</v>
       </c>
       <c r="D6">
-        <v>0.9633550719200786</v>
+        <v>1.016321447647368</v>
       </c>
       <c r="E6">
-        <v>0.967133740560146</v>
+        <v>1.015614599704553</v>
       </c>
       <c r="F6">
-        <v>0.9353374667839204</v>
+        <v>1.0133873916259</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04537027023839</v>
+        <v>1.023412460900047</v>
       </c>
       <c r="J6">
-        <v>0.9757998710239199</v>
+        <v>1.018374353465014</v>
       </c>
       <c r="K6">
-        <v>0.973640900982639</v>
+        <v>1.018794437791005</v>
       </c>
       <c r="L6">
-        <v>0.9773712297985191</v>
+        <v>1.01808940663465</v>
       </c>
       <c r="M6">
-        <v>0.9459970752798107</v>
+        <v>1.015867940953244</v>
       </c>
       <c r="N6">
-        <v>0.9771856187665833</v>
+        <v>1.019820561856106</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9531748744645602</v>
+        <v>1.013335493053048</v>
       </c>
       <c r="D7">
-        <v>0.9609927030310759</v>
+        <v>1.015834464617906</v>
       </c>
       <c r="E7">
-        <v>0.9649747998592082</v>
+        <v>1.015170450409669</v>
       </c>
       <c r="F7">
-        <v>0.9317956989549163</v>
+        <v>1.01266636710805</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045357539874439</v>
+        <v>1.02344298551034</v>
       </c>
       <c r="J7">
-        <v>0.973850697758943</v>
+        <v>1.017976353784442</v>
       </c>
       <c r="K7">
-        <v>0.971582714706741</v>
+        <v>1.018369812571446</v>
       </c>
       <c r="L7">
-        <v>0.9755120236230242</v>
+        <v>1.017707551076573</v>
       </c>
       <c r="M7">
-        <v>0.9427902032426015</v>
+        <v>1.015210099831563</v>
       </c>
       <c r="N7">
-        <v>0.9752336774519967</v>
+        <v>1.019421996970336</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9419414344806022</v>
+        <v>1.011179212277531</v>
       </c>
       <c r="D8">
-        <v>0.9507529221221467</v>
+        <v>1.013794562926314</v>
       </c>
       <c r="E8">
-        <v>0.9556200677698299</v>
+        <v>1.013309756813113</v>
       </c>
       <c r="F8">
-        <v>0.9163741687000921</v>
+        <v>1.009645814975659</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045260356825638</v>
+        <v>1.023565007130014</v>
       </c>
       <c r="J8">
-        <v>0.965379167348722</v>
+        <v>1.016307117841986</v>
       </c>
       <c r="K8">
-        <v>0.9626440507619107</v>
+        <v>1.016589608609778</v>
       </c>
       <c r="L8">
-        <v>0.9674367527486194</v>
+        <v>1.016106223262073</v>
       </c>
       <c r="M8">
-        <v>0.9288201772761778</v>
+        <v>1.012453066933474</v>
       </c>
       <c r="N8">
-        <v>0.9667501164968952</v>
+        <v>1.017750390521378</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9202902770185608</v>
+        <v>1.007358940637753</v>
       </c>
       <c r="D9">
-        <v>0.9310795308178508</v>
+        <v>1.010182517007348</v>
       </c>
       <c r="E9">
-        <v>0.9376654744980789</v>
+        <v>1.010014252119089</v>
       </c>
       <c r="F9">
-        <v>0.8863765293055376</v>
+        <v>1.004295744692175</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044923609578788</v>
+        <v>1.023759139049229</v>
       </c>
       <c r="J9">
-        <v>0.9490098087994958</v>
+        <v>1.013343546487521</v>
       </c>
       <c r="K9">
-        <v>0.9453993890311412</v>
+        <v>1.013431680646141</v>
       </c>
       <c r="L9">
-        <v>0.9518579008215671</v>
+        <v>1.013263996046943</v>
       </c>
       <c r="M9">
-        <v>0.9016280361326755</v>
+        <v>1.00756533711616</v>
       </c>
       <c r="N9">
-        <v>0.9503575115809377</v>
+        <v>1.014782610555662</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9042606863427939</v>
+        <v>1.004797244699636</v>
       </c>
       <c r="D10">
-        <v>0.916566453221082</v>
+        <v>1.007761862039964</v>
       </c>
       <c r="E10">
-        <v>0.9244395873371035</v>
+        <v>1.007805237397172</v>
       </c>
       <c r="F10">
-        <v>0.8638704801617559</v>
+        <v>1.000708777428093</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044587919160615</v>
+        <v>1.023874603872166</v>
       </c>
       <c r="J10">
-        <v>0.9368648651048537</v>
+        <v>1.011352153591792</v>
       </c>
       <c r="K10">
-        <v>0.9326253506160285</v>
+        <v>1.011311481969041</v>
       </c>
       <c r="L10">
-        <v>0.9403216874570453</v>
+        <v>1.011354692591863</v>
       </c>
       <c r="M10">
-        <v>0.8812256432073122</v>
+        <v>1.004285394863481</v>
       </c>
       <c r="N10">
-        <v>0.9381953206732044</v>
+        <v>1.012788389653606</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.8968391547456759</v>
+        <v>1.003684261183983</v>
       </c>
       <c r="D11">
-        <v>0.9098619717277732</v>
+        <v>1.006710501723597</v>
       </c>
       <c r="E11">
-        <v>0.9183362043108882</v>
+        <v>1.00684568862619</v>
       </c>
       <c r="F11">
-        <v>0.8533456012816594</v>
+        <v>0.9991503778886722</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0444161704399</v>
+        <v>1.023921309042974</v>
       </c>
       <c r="J11">
-        <v>0.9312363066368053</v>
+        <v>1.010485965543978</v>
       </c>
       <c r="K11">
-        <v>0.9267105492723888</v>
+        <v>1.010389694353909</v>
       </c>
       <c r="L11">
-        <v>0.9349820416244033</v>
+        <v>1.0105243472595</v>
       </c>
       <c r="M11">
-        <v>0.8716877855383576</v>
+        <v>1.002859689474238</v>
       </c>
       <c r="N11">
-        <v>0.9325587690065271</v>
+        <v>1.01192097151941</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.8939990238476523</v>
+        <v>1.00327026682997</v>
       </c>
       <c r="D12">
-        <v>0.9072987357751933</v>
+        <v>1.00631948184901</v>
       </c>
       <c r="E12">
-        <v>0.9160039501380068</v>
+        <v>1.006488799212478</v>
       </c>
       <c r="F12">
-        <v>0.8492981842505073</v>
+        <v>0.998570700293726</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044348406001364</v>
+        <v>1.023938164268129</v>
       </c>
       <c r="J12">
-        <v>0.9290815241021305</v>
+        <v>1.010163623420673</v>
       </c>
       <c r="K12">
-        <v>0.9244470353669133</v>
+        <v>1.010046725662995</v>
       </c>
       <c r="L12">
-        <v>0.9329390474032939</v>
+        <v>1.010215364615088</v>
       </c>
       <c r="M12">
-        <v>0.8680208306643999</v>
+        <v>1.002329265808783</v>
       </c>
       <c r="N12">
-        <v>0.9304009264334958</v>
+        <v>1.011598171633318</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.8946122276009553</v>
+        <v>1.003359096700946</v>
       </c>
       <c r="D13">
-        <v>0.9078520395790947</v>
+        <v>1.00640337974255</v>
       </c>
       <c r="E13">
-        <v>0.9165073374413372</v>
+        <v>1.006565374725977</v>
       </c>
       <c r="F13">
-        <v>0.8501730104179417</v>
+        <v>0.9986950807090049</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044363121405789</v>
+        <v>1.023934571058996</v>
       </c>
       <c r="J13">
-        <v>0.9295467920875077</v>
+        <v>1.010232794355919</v>
       </c>
       <c r="K13">
-        <v>0.9249357416583118</v>
+        <v>1.010120319918557</v>
       </c>
       <c r="L13">
-        <v>0.9333801213546107</v>
+        <v>1.010281667800164</v>
       </c>
       <c r="M13">
-        <v>0.8688133740275088</v>
+        <v>1.002443082606589</v>
       </c>
       <c r="N13">
-        <v>0.9308668551527792</v>
+        <v>1.011667440799226</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.896606165486226</v>
+        <v>1.003650052279565</v>
       </c>
       <c r="D14">
-        <v>0.9096516456527155</v>
+        <v>1.006678190153545</v>
       </c>
       <c r="E14">
-        <v>0.9181448064535779</v>
+        <v>1.006816197716495</v>
       </c>
       <c r="F14">
-        <v>0.8530139964773207</v>
+        <v>0.9991024784588267</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044410650012188</v>
+        <v>1.023922712353276</v>
       </c>
       <c r="J14">
-        <v>0.9310595557367075</v>
+        <v>1.010459332998333</v>
       </c>
       <c r="K14">
-        <v>0.9265248618913354</v>
+        <v>1.010361356291172</v>
       </c>
       <c r="L14">
-        <v>0.9348144354425725</v>
+        <v>1.010498818069175</v>
       </c>
       <c r="M14">
-        <v>0.8713873311916551</v>
+        <v>1.002815862078011</v>
       </c>
       <c r="N14">
-        <v>0.9323817670998774</v>
+        <v>1.011894301152496</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.8978232576883169</v>
+        <v>1.003829241825999</v>
       </c>
       <c r="D15">
-        <v>0.9107504518407845</v>
+        <v>1.006847443437462</v>
       </c>
       <c r="E15">
-        <v>0.9191447746890483</v>
+        <v>1.006970675272938</v>
       </c>
       <c r="F15">
-        <v>0.8547454159927579</v>
+        <v>0.9993533801425385</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044439407833738</v>
+        <v>1.023915340507297</v>
       </c>
       <c r="J15">
-        <v>0.9319828370813368</v>
+        <v>1.010598830796842</v>
       </c>
       <c r="K15">
-        <v>0.9274948588799934</v>
+        <v>1.010509789992768</v>
       </c>
       <c r="L15">
-        <v>0.9356899970936317</v>
+        <v>1.01063253749945</v>
       </c>
       <c r="M15">
-        <v>0.8729561426228504</v>
+        <v>1.003045429803249</v>
       </c>
       <c r="N15">
-        <v>0.933306359609918</v>
+        <v>1.012033997053879</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9047422021792932</v>
+        <v>1.004871029079135</v>
       </c>
       <c r="D16">
-        <v>0.917001771625731</v>
+        <v>1.007831568482541</v>
       </c>
       <c r="E16">
-        <v>0.9248360251264208</v>
+        <v>1.00786885436316</v>
       </c>
       <c r="F16">
-        <v>0.8645508935875448</v>
+        <v>1.000812090378617</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044598761177637</v>
+        <v>1.023871434968932</v>
       </c>
       <c r="J16">
-        <v>0.9372299402866781</v>
+        <v>1.011409556147989</v>
       </c>
       <c r="K16">
-        <v>0.9330091047446661</v>
+        <v>1.011372578105769</v>
       </c>
       <c r="L16">
-        <v>0.9406681753657417</v>
+        <v>1.011409722754907</v>
       </c>
       <c r="M16">
-        <v>0.8818423452971449</v>
+        <v>1.004379896328307</v>
       </c>
       <c r="N16">
-        <v>0.938560914303662</v>
+        <v>1.012845873728017</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9089464448279211</v>
+        <v>1.005523496783809</v>
       </c>
       <c r="D17">
-        <v>0.9208043400306055</v>
+        <v>1.00844801528546</v>
       </c>
       <c r="E17">
-        <v>0.9282997065077905</v>
+        <v>1.008431436462027</v>
       </c>
       <c r="F17">
-        <v>0.8704797380520591</v>
+        <v>1.001725679268545</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044691650831722</v>
+        <v>1.023843013862359</v>
       </c>
       <c r="J17">
-        <v>0.9404168933425394</v>
+        <v>1.011917047514306</v>
       </c>
       <c r="K17">
-        <v>0.9363597132599292</v>
+        <v>1.011912773292779</v>
       </c>
       <c r="L17">
-        <v>0.943693641680039</v>
+        <v>1.011896255789868</v>
       </c>
       <c r="M17">
-        <v>0.8872164319301301</v>
+        <v>1.005215485621801</v>
       </c>
       <c r="N17">
-        <v>0.9417523931984111</v>
+        <v>1.013354085790284</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9113532149450041</v>
+        <v>1.00590370941189</v>
       </c>
       <c r="D18">
-        <v>0.922982531515307</v>
+        <v>1.008807270608161</v>
       </c>
       <c r="E18">
-        <v>0.9302843615698445</v>
+        <v>1.008759289670581</v>
       </c>
       <c r="F18">
-        <v>0.8738643640880789</v>
+        <v>1.002258059003729</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044743285667331</v>
+        <v>1.023826118601784</v>
       </c>
       <c r="J18">
-        <v>0.9422407851200972</v>
+        <v>1.012212683207891</v>
       </c>
       <c r="K18">
-        <v>0.9382777525882505</v>
+        <v>1.012227501417767</v>
       </c>
       <c r="L18">
-        <v>0.9454257320515909</v>
+        <v>1.012179695460119</v>
       </c>
       <c r="M18">
-        <v>0.8902846300395729</v>
+        <v>1.005702345219157</v>
       </c>
       <c r="N18">
-        <v>0.9435788751114963</v>
+        <v>1.013650141320464</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9121664453743121</v>
+        <v>1.006033291474622</v>
       </c>
       <c r="D19">
-        <v>0.9237187517251554</v>
+        <v>1.008929715713359</v>
       </c>
       <c r="E19">
-        <v>0.9309552612754859</v>
+        <v>1.008871030162452</v>
       </c>
       <c r="F19">
-        <v>0.8750065063022392</v>
+        <v>1.002439502759521</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044760460044801</v>
+        <v>1.023820303822167</v>
       </c>
       <c r="J19">
-        <v>0.9428569758991091</v>
+        <v>1.012313424113664</v>
       </c>
       <c r="K19">
-        <v>0.9389258319211763</v>
+        <v>1.012334755224157</v>
       </c>
       <c r="L19">
-        <v>0.9460110088212033</v>
+        <v>1.012276282654583</v>
       </c>
       <c r="M19">
-        <v>0.8913200291554915</v>
+        <v>1.005868263575753</v>
       </c>
       <c r="N19">
-        <v>0.9441959409520927</v>
+        <v>1.013751025289878</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9085001479813549</v>
+        <v>1.005453530624436</v>
       </c>
       <c r="D20">
-        <v>0.9204005386959286</v>
+        <v>1.008381908323377</v>
       </c>
       <c r="E20">
-        <v>0.9279318299457314</v>
+        <v>1.008371106976771</v>
       </c>
       <c r="F20">
-        <v>0.8698513727606209</v>
+        <v>1.001627711917561</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044681948034609</v>
+        <v>1.023846096030143</v>
       </c>
       <c r="J20">
-        <v>0.9400786394902092</v>
+        <v>1.011862637435466</v>
       </c>
       <c r="K20">
-        <v>0.9360040383643282</v>
+        <v>1.011854852665216</v>
       </c>
       <c r="L20">
-        <v>0.9433724622066837</v>
+        <v>1.011844091372952</v>
       </c>
       <c r="M20">
-        <v>0.8866468317734034</v>
+        <v>1.005125889380989</v>
       </c>
       <c r="N20">
-        <v>0.9414136589868124</v>
+        <v>1.013299598442891</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.8960214076880072</v>
+        <v>1.00356438935315</v>
       </c>
       <c r="D21">
-        <v>0.909123808842097</v>
+        <v>1.006597279217181</v>
       </c>
       <c r="E21">
-        <v>0.9176644916649179</v>
+        <v>1.006742349700188</v>
       </c>
       <c r="F21">
-        <v>0.8521814021328137</v>
+        <v>0.9989825328530689</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044396763635349</v>
+        <v>1.02392621804881</v>
       </c>
       <c r="J21">
-        <v>0.9306159325593373</v>
+        <v>1.010392639736102</v>
       </c>
       <c r="K21">
-        <v>0.9260588230868779</v>
+        <v>1.01029039310712</v>
       </c>
       <c r="L21">
-        <v>0.9343937839848612</v>
+        <v>1.010434888172092</v>
       </c>
       <c r="M21">
-        <v>0.870632965439432</v>
+        <v>1.002706111623407</v>
       </c>
       <c r="N21">
-        <v>0.9319375139267112</v>
+        <v>1.011827513178184</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8876850155052863</v>
+        <v>1.002373230232305</v>
       </c>
       <c r="D22">
-        <v>0.9016052263172877</v>
+        <v>1.005472323144595</v>
       </c>
       <c r="E22">
-        <v>0.9108259361467883</v>
+        <v>1.005715556942551</v>
       </c>
       <c r="F22">
-        <v>0.84025827309406</v>
+        <v>0.9973146500667875</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044194488544656</v>
+        <v>1.023973741382756</v>
       </c>
       <c r="J22">
-        <v>0.9242896813650333</v>
+        <v>1.009464907179711</v>
       </c>
       <c r="K22">
-        <v>0.919415045581163</v>
+        <v>1.009303416377554</v>
       </c>
       <c r="L22">
-        <v>0.9283982133377958</v>
+        <v>1.009545645695088</v>
       </c>
       <c r="M22">
-        <v>0.8598329127492774</v>
+        <v>1.00117974896345</v>
       </c>
       <c r="N22">
-        <v>0.9256022787300799</v>
+        <v>1.01089846313515</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8921552993377558</v>
+        <v>1.00300501310331</v>
       </c>
       <c r="D23">
-        <v>0.905635498857903</v>
+        <v>1.0060689632019</v>
       </c>
       <c r="E23">
-        <v>0.9144909523992569</v>
+        <v>1.006260142868672</v>
       </c>
       <c r="F23">
-        <v>0.846664583823506</v>
+        <v>0.9981992885366439</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044303897290665</v>
+        <v>1.023948818288664</v>
       </c>
       <c r="J23">
-        <v>0.9276824836866399</v>
+        <v>1.009957051354936</v>
       </c>
       <c r="K23">
-        <v>0.9229776467409638</v>
+        <v>1.009826953201412</v>
       </c>
       <c r="L23">
-        <v>0.9316129456646843</v>
+        <v>1.010017359913397</v>
       </c>
       <c r="M23">
-        <v>0.8656351062132005</v>
+        <v>1.001989382774208</v>
       </c>
       <c r="N23">
-        <v>0.9289998992201431</v>
+        <v>1.011391306211553</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9087019500822722</v>
+        <v>1.005485146434493</v>
       </c>
       <c r="D24">
-        <v>0.9205831213633655</v>
+        <v>1.008411780164375</v>
       </c>
       <c r="E24">
-        <v>0.9280981670728794</v>
+        <v>1.008398368174521</v>
       </c>
       <c r="F24">
-        <v>0.8701355298167055</v>
+        <v>1.001671980694062</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04468634017905</v>
+        <v>1.023844704313072</v>
       </c>
       <c r="J24">
-        <v>0.9402315893947063</v>
+        <v>1.011887224167813</v>
       </c>
       <c r="K24">
-        <v>0.9361648641123566</v>
+        <v>1.011881025611365</v>
       </c>
       <c r="L24">
-        <v>0.9435176895938866</v>
+        <v>1.011867663298968</v>
       </c>
       <c r="M24">
-        <v>0.8869044134640973</v>
+        <v>1.005166375688317</v>
       </c>
       <c r="N24">
-        <v>0.9415668260977174</v>
+        <v>1.013324220091218</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9261395362398853</v>
+        <v>1.008349117105378</v>
       </c>
       <c r="D25">
-        <v>0.9363864368603605</v>
+        <v>1.011118477954687</v>
       </c>
       <c r="E25">
-        <v>0.9425060288739808</v>
+        <v>1.010868279412308</v>
       </c>
       <c r="F25">
-        <v>0.8945215118526715</v>
+        <v>1.005682303827192</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045030265302785</v>
+        <v>1.02371141742819</v>
       </c>
       <c r="J25">
-        <v>0.9534366421186972</v>
+        <v>1.014112406671109</v>
       </c>
       <c r="K25">
-        <v>0.9500596610210167</v>
+        <v>1.014250649547849</v>
       </c>
       <c r="L25">
-        <v>0.9560676456271798</v>
+        <v>1.01400128018193</v>
       </c>
       <c r="M25">
-        <v>0.9090123784410723</v>
+        <v>1.008832593294169</v>
       </c>
       <c r="N25">
-        <v>0.954790631511217</v>
+        <v>1.015552562608901</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_228/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_228/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.010622732913008</v>
+        <v>0.938934232474526</v>
       </c>
       <c r="D2">
-        <v>1.013268254309555</v>
+        <v>0.9480155195999974</v>
       </c>
       <c r="E2">
-        <v>1.012829630966766</v>
+        <v>0.9531202694994393</v>
       </c>
       <c r="F2">
-        <v>1.008866401775824</v>
+        <v>0.9122309421231143</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.023594999628091</v>
+        <v>1.045224098310553</v>
       </c>
       <c r="J2">
-        <v>1.015875912179003</v>
+        <v>0.9631085372907702</v>
       </c>
       <c r="K2">
-        <v>1.016129916656902</v>
+        <v>0.9602499497323479</v>
       </c>
       <c r="L2">
-        <v>1.015692611750708</v>
+        <v>0.965273797470885</v>
       </c>
       <c r="M2">
-        <v>1.011741352102767</v>
+        <v>0.9250654521581732</v>
       </c>
       <c r="N2">
-        <v>1.017318572496894</v>
+        <v>0.9644762618838163</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.012267720130226</v>
+        <v>0.9476929422031893</v>
       </c>
       <c r="D3">
-        <v>1.014824216018873</v>
+        <v>0.9559928693674863</v>
       </c>
       <c r="E3">
-        <v>1.014248996179511</v>
+        <v>0.9604064114283877</v>
       </c>
       <c r="F3">
-        <v>1.011170520799082</v>
+        <v>0.9242803732894929</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.023504579208683</v>
+        <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>1.017150088860457</v>
+        <v>0.9697187557839637</v>
       </c>
       <c r="K3">
-        <v>1.017488479125081</v>
+        <v>0.9672216169707128</v>
       </c>
       <c r="L3">
-        <v>1.016914860441043</v>
+        <v>0.9715722847747298</v>
       </c>
       <c r="M3">
-        <v>1.013844987741668</v>
+        <v>0.9359834553518001</v>
       </c>
       <c r="N3">
-        <v>1.018594558655385</v>
+        <v>0.9710958676454732</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013329534166126</v>
+        <v>0.9531447050055087</v>
       </c>
       <c r="D4">
-        <v>1.015828826175059</v>
+        <v>0.9609651720196795</v>
       </c>
       <c r="E4">
-        <v>1.015165307789247</v>
+        <v>0.9649496411425128</v>
       </c>
       <c r="F4">
-        <v>1.012658018727508</v>
+        <v>0.9317543894858963</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.023443335729026</v>
+        <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>1.017971744485485</v>
+        <v>0.9738279700764703</v>
       </c>
       <c r="K4">
-        <v>1.018364895301191</v>
+        <v>0.9715587194354649</v>
       </c>
       <c r="L4">
-        <v>1.017703128852677</v>
+        <v>0.975490347615955</v>
       </c>
       <c r="M4">
-        <v>1.015202482377502</v>
+        <v>0.9427527959560462</v>
       </c>
       <c r="N4">
-        <v>1.019417381125646</v>
+        <v>0.9752109174936083</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013775313124033</v>
+        <v>0.9553888646998887</v>
       </c>
       <c r="D5">
-        <v>1.016250651085927</v>
+        <v>0.9630135183467078</v>
       </c>
       <c r="E5">
-        <v>1.015550031501989</v>
+        <v>0.9668215828915874</v>
       </c>
       <c r="F5">
-        <v>1.013282571957314</v>
+        <v>0.9348257451469643</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.023416932628374</v>
+        <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>1.018316505173813</v>
+        <v>0.9755181850391276</v>
       </c>
       <c r="K5">
-        <v>1.018732715462583</v>
+        <v>0.9733434236975378</v>
       </c>
       <c r="L5">
-        <v>1.018033903713064</v>
+        <v>0.9771025177810988</v>
       </c>
       <c r="M5">
-        <v>1.015772313472753</v>
+        <v>0.9455337817677353</v>
       </c>
       <c r="N5">
-        <v>1.019762631413695</v>
+        <v>0.9769035327553827</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013850126184366</v>
+        <v>0.9557629724339851</v>
       </c>
       <c r="D6">
-        <v>1.016321447647368</v>
+        <v>0.96335507192008</v>
       </c>
       <c r="E6">
-        <v>1.015614599704553</v>
+        <v>0.9671337405601476</v>
       </c>
       <c r="F6">
-        <v>1.0133873916259</v>
+        <v>0.9353374667839225</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.023412460900047</v>
+        <v>1.04537027023839</v>
       </c>
       <c r="J6">
-        <v>1.018374353465014</v>
+        <v>0.9757998710239213</v>
       </c>
       <c r="K6">
-        <v>1.018794437791005</v>
+        <v>0.9736409009826402</v>
       </c>
       <c r="L6">
-        <v>1.01808940663465</v>
+        <v>0.9773712297985205</v>
       </c>
       <c r="M6">
-        <v>1.015867940953244</v>
+        <v>0.9459970752798126</v>
       </c>
       <c r="N6">
-        <v>1.019820561856106</v>
+        <v>0.9771856187665852</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013335493053048</v>
+        <v>0.9531748744645602</v>
       </c>
       <c r="D7">
-        <v>1.015834464617906</v>
+        <v>0.9609927030310762</v>
       </c>
       <c r="E7">
-        <v>1.015170450409669</v>
+        <v>0.9649747998592085</v>
       </c>
       <c r="F7">
-        <v>1.01266636710805</v>
+        <v>0.9317956989549159</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.02344298551034</v>
+        <v>1.045357539874438</v>
       </c>
       <c r="J7">
-        <v>1.017976353784442</v>
+        <v>0.9738506977589433</v>
       </c>
       <c r="K7">
-        <v>1.018369812571446</v>
+        <v>0.9715827147067412</v>
       </c>
       <c r="L7">
-        <v>1.017707551076573</v>
+        <v>0.9755120236230242</v>
       </c>
       <c r="M7">
-        <v>1.015210099831563</v>
+        <v>0.9427902032426012</v>
       </c>
       <c r="N7">
-        <v>1.019421996970336</v>
+        <v>0.9752336774519973</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.011179212277531</v>
+        <v>0.9419414344806001</v>
       </c>
       <c r="D8">
-        <v>1.013794562926314</v>
+        <v>0.9507529221221444</v>
       </c>
       <c r="E8">
-        <v>1.013309756813113</v>
+        <v>0.9556200677698281</v>
       </c>
       <c r="F8">
-        <v>1.009645814975659</v>
+        <v>0.9163741687000901</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.023565007130014</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>1.016307117841986</v>
+        <v>0.96537916734872</v>
       </c>
       <c r="K8">
-        <v>1.016589608609778</v>
+        <v>0.9626440507619086</v>
       </c>
       <c r="L8">
-        <v>1.016106223262073</v>
+        <v>0.9674367527486176</v>
       </c>
       <c r="M8">
-        <v>1.012453066933474</v>
+        <v>0.9288201772761762</v>
       </c>
       <c r="N8">
-        <v>1.017750390521378</v>
+        <v>0.9667501164968934</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.007358940637753</v>
+        <v>0.9202902770185594</v>
       </c>
       <c r="D9">
-        <v>1.010182517007348</v>
+        <v>0.9310795308178492</v>
       </c>
       <c r="E9">
-        <v>1.010014252119089</v>
+        <v>0.9376654744980771</v>
       </c>
       <c r="F9">
-        <v>1.004295744692175</v>
+        <v>0.886376529305536</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023759139049229</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J9">
-        <v>1.013343546487521</v>
+        <v>0.9490098087994945</v>
       </c>
       <c r="K9">
-        <v>1.013431680646141</v>
+        <v>0.9453993890311397</v>
       </c>
       <c r="L9">
-        <v>1.013263996046943</v>
+        <v>0.9518579008215657</v>
       </c>
       <c r="M9">
-        <v>1.00756533711616</v>
+        <v>0.9016280361326737</v>
       </c>
       <c r="N9">
-        <v>1.014782610555662</v>
+        <v>0.9503575115809363</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.004797244699636</v>
+        <v>0.9042606863427942</v>
       </c>
       <c r="D10">
-        <v>1.007761862039964</v>
+        <v>0.9165664532210827</v>
       </c>
       <c r="E10">
-        <v>1.007805237397172</v>
+        <v>0.9244395873371035</v>
       </c>
       <c r="F10">
-        <v>1.000708777428093</v>
+        <v>0.8638704801617564</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023874603872166</v>
+        <v>1.044587919160615</v>
       </c>
       <c r="J10">
-        <v>1.011352153591792</v>
+        <v>0.936864865104854</v>
       </c>
       <c r="K10">
-        <v>1.011311481969041</v>
+        <v>0.9326253506160289</v>
       </c>
       <c r="L10">
-        <v>1.011354692591863</v>
+        <v>0.9403216874570455</v>
       </c>
       <c r="M10">
-        <v>1.004285394863481</v>
+        <v>0.8812256432073124</v>
       </c>
       <c r="N10">
-        <v>1.012788389653606</v>
+        <v>0.9381953206732051</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.003684261183983</v>
+        <v>0.896839154745675</v>
       </c>
       <c r="D11">
-        <v>1.006710501723597</v>
+        <v>0.9098619717277722</v>
       </c>
       <c r="E11">
-        <v>1.00684568862619</v>
+        <v>0.918336204310887</v>
       </c>
       <c r="F11">
-        <v>0.9991503778886722</v>
+        <v>0.8533456012816585</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023921309042974</v>
+        <v>1.0444161704399</v>
       </c>
       <c r="J11">
-        <v>1.010485965543978</v>
+        <v>0.9312363066368043</v>
       </c>
       <c r="K11">
-        <v>1.010389694353909</v>
+        <v>0.9267105492723877</v>
       </c>
       <c r="L11">
-        <v>1.0105243472595</v>
+        <v>0.9349820416244025</v>
       </c>
       <c r="M11">
-        <v>1.002859689474238</v>
+        <v>0.8716877855383564</v>
       </c>
       <c r="N11">
-        <v>1.01192097151941</v>
+        <v>0.9325587690065262</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.00327026682997</v>
+        <v>0.8939990238476525</v>
       </c>
       <c r="D12">
-        <v>1.00631948184901</v>
+        <v>0.9072987357751933</v>
       </c>
       <c r="E12">
-        <v>1.006488799212478</v>
+        <v>0.9160039501380067</v>
       </c>
       <c r="F12">
-        <v>0.998570700293726</v>
+        <v>0.8492981842505072</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023938164268129</v>
+        <v>1.044348406001364</v>
       </c>
       <c r="J12">
-        <v>1.010163623420673</v>
+        <v>0.9290815241021307</v>
       </c>
       <c r="K12">
-        <v>1.010046725662995</v>
+        <v>0.9244470353669133</v>
       </c>
       <c r="L12">
-        <v>1.010215364615088</v>
+        <v>0.9329390474032938</v>
       </c>
       <c r="M12">
-        <v>1.002329265808783</v>
+        <v>0.8680208306643999</v>
       </c>
       <c r="N12">
-        <v>1.011598171633318</v>
+        <v>0.9304009264334959</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.003359096700946</v>
+        <v>0.894612227600956</v>
       </c>
       <c r="D13">
-        <v>1.00640337974255</v>
+        <v>0.9078520395790959</v>
       </c>
       <c r="E13">
-        <v>1.006565374725977</v>
+        <v>0.9165073374413378</v>
       </c>
       <c r="F13">
-        <v>0.9986950807090049</v>
+        <v>0.8501730104179424</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023934571058996</v>
+        <v>1.044363121405789</v>
       </c>
       <c r="J13">
-        <v>1.010232794355919</v>
+        <v>0.9295467920875085</v>
       </c>
       <c r="K13">
-        <v>1.010120319918557</v>
+        <v>0.9249357416583127</v>
       </c>
       <c r="L13">
-        <v>1.010281667800164</v>
+        <v>0.9333801213546113</v>
       </c>
       <c r="M13">
-        <v>1.002443082606589</v>
+        <v>0.8688133740275097</v>
       </c>
       <c r="N13">
-        <v>1.011667440799226</v>
+        <v>0.93086685515278</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.003650052279565</v>
+        <v>0.8966061654862263</v>
       </c>
       <c r="D14">
-        <v>1.006678190153545</v>
+        <v>0.9096516456527158</v>
       </c>
       <c r="E14">
-        <v>1.006816197716495</v>
+        <v>0.9181448064535783</v>
       </c>
       <c r="F14">
-        <v>0.9991024784588267</v>
+        <v>0.8530139964773211</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023922712353276</v>
+        <v>1.044410650012189</v>
       </c>
       <c r="J14">
-        <v>1.010459332998333</v>
+        <v>0.9310595557367078</v>
       </c>
       <c r="K14">
-        <v>1.010361356291172</v>
+        <v>0.9265248618913356</v>
       </c>
       <c r="L14">
-        <v>1.010498818069175</v>
+        <v>0.9348144354425726</v>
       </c>
       <c r="M14">
-        <v>1.002815862078011</v>
+        <v>0.8713873311916557</v>
       </c>
       <c r="N14">
-        <v>1.011894301152496</v>
+        <v>0.9323817670998777</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.003829241825999</v>
+        <v>0.8978232576883174</v>
       </c>
       <c r="D15">
-        <v>1.006847443437462</v>
+        <v>0.9107504518407848</v>
       </c>
       <c r="E15">
-        <v>1.006970675272938</v>
+        <v>0.9191447746890482</v>
       </c>
       <c r="F15">
-        <v>0.9993533801425385</v>
+        <v>0.8547454159927583</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023915340507297</v>
+        <v>1.044439407833738</v>
       </c>
       <c r="J15">
-        <v>1.010598830796842</v>
+        <v>0.9319828370813371</v>
       </c>
       <c r="K15">
-        <v>1.010509789992768</v>
+        <v>0.9274948588799938</v>
       </c>
       <c r="L15">
-        <v>1.01063253749945</v>
+        <v>0.9356899970936318</v>
       </c>
       <c r="M15">
-        <v>1.003045429803249</v>
+        <v>0.8729561426228507</v>
       </c>
       <c r="N15">
-        <v>1.012033997053879</v>
+        <v>0.9333063596099183</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.004871029079135</v>
+        <v>0.9047422021792942</v>
       </c>
       <c r="D16">
-        <v>1.007831568482541</v>
+        <v>0.9170017716257317</v>
       </c>
       <c r="E16">
-        <v>1.00786885436316</v>
+        <v>0.9248360251264218</v>
       </c>
       <c r="F16">
-        <v>1.000812090378617</v>
+        <v>0.8645508935875457</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023871434968932</v>
+        <v>1.044598761177637</v>
       </c>
       <c r="J16">
-        <v>1.011409556147989</v>
+        <v>0.9372299402866791</v>
       </c>
       <c r="K16">
-        <v>1.011372578105769</v>
+        <v>0.9330091047446671</v>
       </c>
       <c r="L16">
-        <v>1.011409722754907</v>
+        <v>0.9406681753657425</v>
       </c>
       <c r="M16">
-        <v>1.004379896328307</v>
+        <v>0.8818423452971457</v>
       </c>
       <c r="N16">
-        <v>1.012845873728017</v>
+        <v>0.9385609143036628</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.005523496783809</v>
+        <v>0.9089464448279215</v>
       </c>
       <c r="D17">
-        <v>1.00844801528546</v>
+        <v>0.9208043400306065</v>
       </c>
       <c r="E17">
-        <v>1.008431436462027</v>
+        <v>0.9282997065077908</v>
       </c>
       <c r="F17">
-        <v>1.001725679268545</v>
+        <v>0.87047973805206</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023843013862359</v>
+        <v>1.044691650831722</v>
       </c>
       <c r="J17">
-        <v>1.011917047514306</v>
+        <v>0.94041689334254</v>
       </c>
       <c r="K17">
-        <v>1.011912773292779</v>
+        <v>0.9363597132599298</v>
       </c>
       <c r="L17">
-        <v>1.011896255789868</v>
+        <v>0.9436936416800393</v>
       </c>
       <c r="M17">
-        <v>1.005215485621801</v>
+        <v>0.8872164319301309</v>
       </c>
       <c r="N17">
-        <v>1.013354085790284</v>
+        <v>0.9417523931984116</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.00590370941189</v>
+        <v>0.9113532149450035</v>
       </c>
       <c r="D18">
-        <v>1.008807270608161</v>
+        <v>0.9229825315153061</v>
       </c>
       <c r="E18">
-        <v>1.008759289670581</v>
+        <v>0.930284361569844</v>
       </c>
       <c r="F18">
-        <v>1.002258059003729</v>
+        <v>0.8738643640880788</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023826118601784</v>
+        <v>1.044743285667331</v>
       </c>
       <c r="J18">
-        <v>1.012212683207891</v>
+        <v>0.9422407851200967</v>
       </c>
       <c r="K18">
-        <v>1.012227501417767</v>
+        <v>0.9382777525882499</v>
       </c>
       <c r="L18">
-        <v>1.012179695460119</v>
+        <v>0.9454257320515903</v>
       </c>
       <c r="M18">
-        <v>1.005702345219157</v>
+        <v>0.8902846300395725</v>
       </c>
       <c r="N18">
-        <v>1.013650141320464</v>
+        <v>0.9435788751114962</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.006033291474622</v>
+        <v>0.9121664453743128</v>
       </c>
       <c r="D19">
-        <v>1.008929715713359</v>
+        <v>0.9237187517251563</v>
       </c>
       <c r="E19">
-        <v>1.008871030162452</v>
+        <v>0.9309552612754868</v>
       </c>
       <c r="F19">
-        <v>1.002439502759521</v>
+        <v>0.8750065063022405</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023820303822167</v>
+        <v>1.044760460044801</v>
       </c>
       <c r="J19">
-        <v>1.012313424113664</v>
+        <v>0.9428569758991099</v>
       </c>
       <c r="K19">
-        <v>1.012334755224157</v>
+        <v>0.9389258319211771</v>
       </c>
       <c r="L19">
-        <v>1.012276282654583</v>
+        <v>0.946011008821204</v>
       </c>
       <c r="M19">
-        <v>1.005868263575753</v>
+        <v>0.8913200291554926</v>
       </c>
       <c r="N19">
-        <v>1.013751025289878</v>
+        <v>0.9441959409520935</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.005453530624436</v>
+        <v>0.9085001479813545</v>
       </c>
       <c r="D20">
-        <v>1.008381908323377</v>
+        <v>0.920400538695928</v>
       </c>
       <c r="E20">
-        <v>1.008371106976771</v>
+        <v>0.9279318299457311</v>
       </c>
       <c r="F20">
-        <v>1.001627711917561</v>
+        <v>0.8698513727606209</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023846096030143</v>
+        <v>1.044681948034609</v>
       </c>
       <c r="J20">
-        <v>1.011862637435466</v>
+        <v>0.9400786394902089</v>
       </c>
       <c r="K20">
-        <v>1.011854852665216</v>
+        <v>0.9360040383643277</v>
       </c>
       <c r="L20">
-        <v>1.011844091372952</v>
+        <v>0.9433724622066832</v>
       </c>
       <c r="M20">
-        <v>1.005125889380989</v>
+        <v>0.8866468317734035</v>
       </c>
       <c r="N20">
-        <v>1.013299598442891</v>
+        <v>0.9414136589868122</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.00356438935315</v>
+        <v>0.8960214076880054</v>
       </c>
       <c r="D21">
-        <v>1.006597279217181</v>
+        <v>0.9091238088420945</v>
       </c>
       <c r="E21">
-        <v>1.006742349700188</v>
+        <v>0.9176644916649163</v>
       </c>
       <c r="F21">
-        <v>0.9989825328530689</v>
+        <v>0.8521814021328117</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02392621804881</v>
+        <v>1.044396763635349</v>
       </c>
       <c r="J21">
-        <v>1.010392639736102</v>
+        <v>0.9306159325593355</v>
       </c>
       <c r="K21">
-        <v>1.01029039310712</v>
+        <v>0.9260588230868756</v>
       </c>
       <c r="L21">
-        <v>1.010434888172092</v>
+        <v>0.9343937839848594</v>
       </c>
       <c r="M21">
-        <v>1.002706111623407</v>
+        <v>0.87063296543943</v>
       </c>
       <c r="N21">
-        <v>1.011827513178184</v>
+        <v>0.9319375139267093</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.002373230232305</v>
+        <v>0.8876850155052848</v>
       </c>
       <c r="D22">
-        <v>1.005472323144595</v>
+        <v>0.9016052263172861</v>
       </c>
       <c r="E22">
-        <v>1.005715556942551</v>
+        <v>0.9108259361467868</v>
       </c>
       <c r="F22">
-        <v>0.9973146500667875</v>
+        <v>0.8402582730940582</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023973741382756</v>
+        <v>1.044194488544656</v>
       </c>
       <c r="J22">
-        <v>1.009464907179711</v>
+        <v>0.9242896813650319</v>
       </c>
       <c r="K22">
-        <v>1.009303416377554</v>
+        <v>0.9194150455811617</v>
       </c>
       <c r="L22">
-        <v>1.009545645695088</v>
+        <v>0.9283982133377943</v>
       </c>
       <c r="M22">
-        <v>1.00117974896345</v>
+        <v>0.8598329127492759</v>
       </c>
       <c r="N22">
-        <v>1.01089846313515</v>
+        <v>0.9256022787300783</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.00300501310331</v>
+        <v>0.8921552993377566</v>
       </c>
       <c r="D23">
-        <v>1.0060689632019</v>
+        <v>0.9056354988579032</v>
       </c>
       <c r="E23">
-        <v>1.006260142868672</v>
+        <v>0.9144909523992572</v>
       </c>
       <c r="F23">
-        <v>0.9981992885366439</v>
+        <v>0.8466645838235067</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023948818288664</v>
+        <v>1.044303897290665</v>
       </c>
       <c r="J23">
-        <v>1.009957051354936</v>
+        <v>0.9276824836866405</v>
       </c>
       <c r="K23">
-        <v>1.009826953201412</v>
+        <v>0.9229776467409644</v>
       </c>
       <c r="L23">
-        <v>1.010017359913397</v>
+        <v>0.9316129456646848</v>
       </c>
       <c r="M23">
-        <v>1.001989382774208</v>
+        <v>0.8656351062132015</v>
       </c>
       <c r="N23">
-        <v>1.011391306211553</v>
+        <v>0.9289998992201439</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.005485146434493</v>
+        <v>0.9087019500822729</v>
       </c>
       <c r="D24">
-        <v>1.008411780164375</v>
+        <v>0.920583121363366</v>
       </c>
       <c r="E24">
-        <v>1.008398368174521</v>
+        <v>0.9280981670728798</v>
       </c>
       <c r="F24">
-        <v>1.001671980694062</v>
+        <v>0.8701355298167064</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023844704313072</v>
+        <v>1.04468634017905</v>
       </c>
       <c r="J24">
-        <v>1.011887224167813</v>
+        <v>0.9402315893947067</v>
       </c>
       <c r="K24">
-        <v>1.011881025611365</v>
+        <v>0.936164864112357</v>
       </c>
       <c r="L24">
-        <v>1.011867663298968</v>
+        <v>0.9435176895938872</v>
       </c>
       <c r="M24">
-        <v>1.005166375688317</v>
+        <v>0.8869044134640982</v>
       </c>
       <c r="N24">
-        <v>1.013324220091218</v>
+        <v>0.941566826097718</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.008349117105378</v>
+        <v>0.9261395362398849</v>
       </c>
       <c r="D25">
-        <v>1.011118477954687</v>
+        <v>0.9363864368603603</v>
       </c>
       <c r="E25">
-        <v>1.010868279412308</v>
+        <v>0.9425060288739802</v>
       </c>
       <c r="F25">
-        <v>1.005682303827192</v>
+        <v>0.8945215118526713</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02371141742819</v>
+        <v>1.045030265302785</v>
       </c>
       <c r="J25">
-        <v>1.014112406671109</v>
+        <v>0.9534366421186969</v>
       </c>
       <c r="K25">
-        <v>1.014250649547849</v>
+        <v>0.9500596610210167</v>
       </c>
       <c r="L25">
-        <v>1.01400128018193</v>
+        <v>0.9560676456271795</v>
       </c>
       <c r="M25">
-        <v>1.008832593294169</v>
+        <v>0.9090123784410719</v>
       </c>
       <c r="N25">
-        <v>1.015552562608901</v>
+        <v>0.9547906315112167</v>
       </c>
     </row>
   </sheetData>
